--- a/Desktop/SBI_insurance_nl_analysis/output/all_nl.xlsx
+++ b/Desktop/SBI_insurance_nl_analysis/output/all_nl.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souga\Desktop\SBI_insurance_nl_analysis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AECA325-2345-4859-9F9C-682A531D3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EBCC52-1841-4BE0-8950-07AE192DB88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$A$31</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="137">
   <si>
     <t>bajaj</t>
   </si>
@@ -448,22 +451,6 @@
 of claims paid
 (
  in Lakhs)_</t>
-  </si>
-  <si>
-    <t>icici</t>
-  </si>
-  <si>
-    <t>Total Health#</t>
-  </si>
-  <si>
-    <t>Total Health #</t>
-  </si>
-  <si>
-    <t>Upto Q1 
-2020-21</t>
-  </si>
-  <si>
-    <t>Number</t>
   </si>
   <si>
     <t>tata</t>
@@ -895,17 +882,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA41"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.77734375" customWidth="1"/>
     <col min="3" max="3" width="40.21875" customWidth="1"/>
     <col min="4" max="4" width="28.21875" customWidth="1"/>
     <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
@@ -940,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +1134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1208,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1349,7 +1340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1396,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1431,7 +1422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1463,7 +1454,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1537,7 +1528,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -1566,7 +1557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>80</v>
       </c>
@@ -1589,7 +1580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>80</v>
       </c>
@@ -1666,7 +1657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -1731,7 +1722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>80</v>
       </c>
@@ -1781,7 +1772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -1831,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1881,7 +1872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1931,121 +1922,88 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="K22" t="s">
-        <v>75</v>
-      </c>
-      <c r="L22" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" t="s">
-        <v>113</v>
-      </c>
-      <c r="N22" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" t="s">
-        <v>8</v>
-      </c>
-      <c r="P22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" t="s">
-        <v>76</v>
-      </c>
-      <c r="M23" t="s">
-        <v>114</v>
-      </c>
-      <c r="N23" t="s">
-        <v>7</v>
-      </c>
-      <c r="O23" t="s">
-        <v>8</v>
-      </c>
-      <c r="P23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -2069,7 +2027,7 @@
         <v>76</v>
       </c>
       <c r="M24" t="s">
-        <v>113</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
         <v>7</v>
@@ -2081,704 +2039,334 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>112</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>75</v>
-      </c>
-      <c r="L25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" t="s">
-        <v>114</v>
-      </c>
-      <c r="N25" t="s">
-        <v>7</v>
-      </c>
-      <c r="O25" t="s">
-        <v>8</v>
-      </c>
-      <c r="P25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="H26" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" t="s">
+        <v>46</v>
+      </c>
+      <c r="N26" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" t="s">
+        <v>99</v>
+      </c>
+      <c r="P26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>50</v>
+      </c>
+      <c r="R26" t="s">
+        <v>51</v>
+      </c>
+      <c r="S26" t="s">
+        <v>123</v>
+      </c>
+      <c r="T26" t="s">
+        <v>124</v>
+      </c>
+      <c r="U26" t="s">
+        <v>54</v>
+      </c>
+      <c r="V26" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="H27" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" t="s">
+        <v>130</v>
+      </c>
+      <c r="J27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" t="s">
+        <v>133</v>
+      </c>
+      <c r="O27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>135</v>
+      </c>
+      <c r="R27" t="s">
+        <v>136</v>
+      </c>
+      <c r="S27" t="s">
+        <v>7</v>
+      </c>
+      <c r="T27" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I28" t="s">
-        <v>7</v>
-      </c>
-      <c r="J28" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="M28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" t="s">
+        <v>8</v>
+      </c>
+      <c r="S28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I29" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
         <v>14</v>
       </c>
-      <c r="G30" t="s">
+      <c r="K30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" t="s">
+      <c r="M30" t="s">
         <v>16</v>
       </c>
-      <c r="I30" t="s">
+      <c r="O30" t="s">
         <v>17</v>
       </c>
-      <c r="J30" t="s">
+      <c r="Q30" t="s">
         <v>18</v>
       </c>
-      <c r="K30" t="s">
+      <c r="S30" t="s">
         <v>75</v>
       </c>
-      <c r="L30" t="s">
+      <c r="U30" t="s">
         <v>76</v>
       </c>
-      <c r="M30" t="s">
+      <c r="W30" t="s">
         <v>21</v>
       </c>
-      <c r="N30" t="s">
-        <v>7</v>
-      </c>
-      <c r="O30" t="s">
-        <v>8</v>
-      </c>
-      <c r="P30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Y30" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" t="s">
-        <v>44</v>
-      </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="M32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N32" t="s">
-        <v>127</v>
-      </c>
-      <c r="O32" t="s">
-        <v>99</v>
-      </c>
-      <c r="P32" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>50</v>
-      </c>
-      <c r="R32" t="s">
-        <v>51</v>
-      </c>
-      <c r="S32" t="s">
-        <v>128</v>
-      </c>
-      <c r="T32" t="s">
-        <v>129</v>
-      </c>
-      <c r="U32" t="s">
-        <v>54</v>
-      </c>
-      <c r="V32" t="s">
-        <v>7</v>
-      </c>
-      <c r="W32" t="s">
-        <v>55</v>
-      </c>
-      <c r="X32" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" t="s">
-        <v>135</v>
-      </c>
-      <c r="J33" t="s">
-        <v>64</v>
-      </c>
-      <c r="K33" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" t="s">
-        <v>66</v>
-      </c>
-      <c r="M33" t="s">
-        <v>137</v>
-      </c>
-      <c r="N33" t="s">
-        <v>138</v>
-      </c>
-      <c r="O33" t="s">
-        <v>139</v>
-      </c>
-      <c r="P33" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>140</v>
-      </c>
-      <c r="R33" t="s">
-        <v>141</v>
-      </c>
-      <c r="S33" t="s">
-        <v>7</v>
-      </c>
-      <c r="T33" t="s">
-        <v>8</v>
-      </c>
-      <c r="U33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I31" t="s">
         <v>14</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K31" t="s">
         <v>15</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M31" t="s">
         <v>16</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O31" t="s">
         <v>17</v>
       </c>
-      <c r="Q34" t="s">
-        <v>7</v>
-      </c>
-      <c r="R34" t="s">
-        <v>8</v>
-      </c>
-      <c r="S34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" t="s">
-        <v>16</v>
-      </c>
-      <c r="O36" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>18</v>
-      </c>
-      <c r="S36" t="s">
-        <v>75</v>
-      </c>
-      <c r="U36" t="s">
-        <v>76</v>
-      </c>
-      <c r="W36" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="K37" t="s">
-        <v>15</v>
-      </c>
-      <c r="M37" t="s">
-        <v>16</v>
-      </c>
-      <c r="O37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" t="s">
-        <v>75</v>
-      </c>
-      <c r="L38" t="s">
-        <v>76</v>
-      </c>
-      <c r="M38" t="s">
-        <v>113</v>
-      </c>
-      <c r="N38" t="s">
-        <v>7</v>
-      </c>
-      <c r="O38" t="s">
-        <v>8</v>
-      </c>
-      <c r="P38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>75</v>
-      </c>
-      <c r="L39" t="s">
-        <v>76</v>
-      </c>
-      <c r="M39" t="s">
-        <v>114</v>
-      </c>
-      <c r="N39" t="s">
-        <v>7</v>
-      </c>
-      <c r="O39" t="s">
-        <v>8</v>
-      </c>
-      <c r="P39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" t="s">
-        <v>115</v>
-      </c>
-      <c r="F40" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" t="s">
-        <v>115</v>
-      </c>
-      <c r="K40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A31" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="icici"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>